--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_9.xlsx
@@ -478,156 +478,156 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_13</t>
+          <t>model_8_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0988525245603693</v>
+        <v>0.0142660343961194</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.044883946452107</v>
+        <v>-0.686191144538788</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.450014923979</v>
+        <v>-4.214568390048567</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.900177381495623</v>
+        <v>-2.276669917300878</v>
       </c>
       <c r="F2" t="n">
-        <v>1.216106176376343</v>
+        <v>1.090916991233826</v>
       </c>
       <c r="G2" t="n">
-        <v>5.222524642944336</v>
+        <v>1.577954411506653</v>
       </c>
       <c r="H2" t="n">
-        <v>2.484132289886475</v>
+        <v>5.861174583435059</v>
       </c>
       <c r="I2" t="n">
-        <v>3.933853626251221</v>
+        <v>3.593586444854736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_17</t>
+          <t>model_8_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09430409246934701</v>
+        <v>0.01428869368752717</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.877454524105699</v>
+        <v>-0.6861650363286458</v>
       </c>
       <c r="D3" t="n">
-        <v>-17.38379557998675</v>
+        <v>-4.214434666534983</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.885707256289288</v>
+        <v>-2.276594570291274</v>
       </c>
       <c r="F3" t="n">
-        <v>1.211072087287903</v>
+        <v>1.09089195728302</v>
       </c>
       <c r="G3" t="n">
-        <v>4.93535327911377</v>
+        <v>1.577929973602295</v>
       </c>
       <c r="H3" t="n">
-        <v>2.776154518127441</v>
+        <v>5.861023902893066</v>
       </c>
       <c r="I3" t="n">
-        <v>3.919258594512939</v>
+        <v>3.593503952026367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_14</t>
+          <t>model_8_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08990836057308904</v>
+        <v>0.01453367816956652</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.969061788726819</v>
+        <v>-0.6858589898143499</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.96680786191883</v>
+        <v>-4.213031990655103</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.868353765833016</v>
+        <v>-2.275779808598656</v>
       </c>
       <c r="F4" t="n">
-        <v>1.206207275390625</v>
+        <v>1.090620756149292</v>
       </c>
       <c r="G4" t="n">
-        <v>5.092475891113281</v>
+        <v>1.577643752098083</v>
       </c>
       <c r="H4" t="n">
-        <v>2.56217360496521</v>
+        <v>5.859447479248047</v>
       </c>
       <c r="I4" t="n">
-        <v>3.901755332946777</v>
+        <v>3.592610597610474</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_18</t>
+          <t>model_8_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08360952637847952</v>
+        <v>0.01503948113420961</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.824333145870004</v>
+        <v>-0.6857454979163053</v>
       </c>
       <c r="D5" t="n">
-        <v>-17.51688851396451</v>
+        <v>-4.209651986313005</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.847257728515287</v>
+        <v>-2.274097480188</v>
       </c>
       <c r="F5" t="n">
-        <v>1.199236512184143</v>
+        <v>1.090061068534851</v>
       </c>
       <c r="G5" t="n">
-        <v>4.844240188598633</v>
+        <v>1.577537417411804</v>
       </c>
       <c r="H5" t="n">
-        <v>2.796252965927124</v>
+        <v>5.855648517608643</v>
       </c>
       <c r="I5" t="n">
-        <v>3.880476951599121</v>
+        <v>3.590765237808228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_16</t>
+          <t>model_8_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.06706385723269781</v>
+        <v>0.01532256653503938</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.802005806618041</v>
+        <v>-0.6850832124894193</v>
       </c>
       <c r="D6" t="n">
-        <v>-16.94698147511287</v>
+        <v>-4.208315627813604</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.787009870673035</v>
+        <v>-2.273156267033043</v>
       </c>
       <c r="F6" t="n">
-        <v>1.180925250053406</v>
+        <v>1.089747786521912</v>
       </c>
       <c r="G6" t="n">
-        <v>4.805944919586182</v>
+        <v>1.57691764831543</v>
       </c>
       <c r="H6" t="n">
-        <v>2.710190773010254</v>
+        <v>5.854146480560303</v>
       </c>
       <c r="I6" t="n">
-        <v>3.819709300994873</v>
+        <v>3.589732646942139</v>
       </c>
     </row>
     <row r="7">
@@ -637,462 +637,462 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0644082682233047</v>
+        <v>0.01536985982920469</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.738541168276926</v>
+        <v>-0.6856196381725685</v>
       </c>
       <c r="D7" t="n">
-        <v>-17.63144771735413</v>
+        <v>-4.207487477743493</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.77807515921628</v>
+        <v>-2.272998948391852</v>
       </c>
       <c r="F7" t="n">
-        <v>1.177986264228821</v>
+        <v>1.089695334434509</v>
       </c>
       <c r="G7" t="n">
-        <v>4.697092056274414</v>
+        <v>1.577419757843018</v>
       </c>
       <c r="H7" t="n">
-        <v>2.813552618026733</v>
+        <v>5.853215217590332</v>
       </c>
       <c r="I7" t="n">
-        <v>3.810697317123413</v>
+        <v>3.589560270309448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_21</t>
+          <t>model_8_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06103408597984172</v>
+        <v>0.01719689771016719</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.706532281337651</v>
+        <v>-0.6834152047994186</v>
       </c>
       <c r="D8" t="n">
-        <v>-17.87128766012697</v>
+        <v>-4.19695563060304</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.76619127305217</v>
+        <v>-2.266920702312053</v>
       </c>
       <c r="F8" t="n">
-        <v>1.174252152442932</v>
+        <v>1.087673425674438</v>
       </c>
       <c r="G8" t="n">
-        <v>4.642190456390381</v>
+        <v>1.575356602668762</v>
       </c>
       <c r="H8" t="n">
-        <v>2.849771022796631</v>
+        <v>5.841377258300781</v>
       </c>
       <c r="I8" t="n">
-        <v>3.798710584640503</v>
+        <v>3.582894325256348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_12</t>
+          <t>model_8_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.06067753949866139</v>
+        <v>0.02067111599315974</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.930384482358267</v>
+        <v>-0.6745531689366748</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.92918049317996</v>
+        <v>-4.181296666737246</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.760408455727541</v>
+        <v>-2.255367047955548</v>
       </c>
       <c r="F9" t="n">
-        <v>1.173857569694519</v>
+        <v>1.083828449249268</v>
       </c>
       <c r="G9" t="n">
-        <v>5.026137828826904</v>
+        <v>1.567063570022583</v>
       </c>
       <c r="H9" t="n">
-        <v>2.405480861663818</v>
+        <v>5.823777198791504</v>
       </c>
       <c r="I9" t="n">
-        <v>3.792878150939941</v>
+        <v>3.570223093032837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_20</t>
+          <t>model_8_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05857646277273587</v>
+        <v>0.02872167010350268</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.711137355839861</v>
+        <v>-0.6674379704919049</v>
       </c>
       <c r="D10" t="n">
-        <v>-17.6841510781245</v>
+        <v>-4.132476387278895</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.757141088579352</v>
+        <v>-2.228605430493992</v>
       </c>
       <c r="F10" t="n">
-        <v>1.171532273292542</v>
+        <v>1.074918985366821</v>
       </c>
       <c r="G10" t="n">
-        <v>4.650089263916016</v>
+        <v>1.560405015945435</v>
       </c>
       <c r="H10" t="n">
-        <v>2.821511268615723</v>
+        <v>5.768902778625488</v>
       </c>
       <c r="I10" t="n">
-        <v>3.789582252502441</v>
+        <v>3.540873289108276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_23</t>
+          <t>model_8_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05652457252855503</v>
+        <v>0.02902105315443504</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.64857310821209</v>
+        <v>-0.6702790608517275</v>
       </c>
       <c r="D11" t="n">
-        <v>-18.38518393942883</v>
+        <v>-4.127738488844255</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.75019153810984</v>
+        <v>-2.22760497368994</v>
       </c>
       <c r="F11" t="n">
-        <v>1.169261336326599</v>
+        <v>1.07458758354187</v>
       </c>
       <c r="G11" t="n">
-        <v>4.542779922485352</v>
+        <v>1.563063740730286</v>
       </c>
       <c r="H11" t="n">
-        <v>2.927375078201294</v>
+        <v>5.763577461242676</v>
       </c>
       <c r="I11" t="n">
-        <v>3.782572984695435</v>
+        <v>3.539776086807251</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_22</t>
+          <t>model_8_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05529685022196951</v>
+        <v>0.03196150667886777</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.668932222964057</v>
+        <v>-0.6699625434963952</v>
       </c>
       <c r="D12" t="n">
-        <v>-18.05928071347304</v>
+        <v>-4.107700879694351</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.745572410093807</v>
+        <v>-2.217797871397296</v>
       </c>
       <c r="F12" t="n">
-        <v>1.167902588844299</v>
+        <v>1.071333289146423</v>
       </c>
       <c r="G12" t="n">
-        <v>4.577699661254883</v>
+        <v>1.562767624855042</v>
       </c>
       <c r="H12" t="n">
-        <v>2.878159999847412</v>
+        <v>5.741055488586426</v>
       </c>
       <c r="I12" t="n">
-        <v>3.777913808822632</v>
+        <v>3.529020309448242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_24</t>
+          <t>model_8_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05482660621766922</v>
+        <v>0.04617166806055084</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.639180454366384</v>
+        <v>-0.6495430460857872</v>
       </c>
       <c r="D13" t="n">
-        <v>-18.4183348328557</v>
+        <v>-4.028776778750252</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.744093556388669</v>
+        <v>-2.170509601667613</v>
       </c>
       <c r="F13" t="n">
-        <v>1.16738224029541</v>
+        <v>1.055606961250305</v>
       </c>
       <c r="G13" t="n">
-        <v>4.526670455932617</v>
+        <v>1.543658852577209</v>
       </c>
       <c r="H13" t="n">
-        <v>2.932381153106689</v>
+        <v>5.652344703674316</v>
       </c>
       <c r="I13" t="n">
-        <v>3.776422023773193</v>
+        <v>3.477158308029175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_15</t>
+          <t>model_8_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04609346742115727</v>
+        <v>0.06314268413903867</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.731053592543796</v>
+        <v>-0.6284488187897554</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.77379922533379</v>
+        <v>-3.930722023618835</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.710946193436548</v>
+        <v>-2.113689176375491</v>
       </c>
       <c r="F14" t="n">
-        <v>1.157717108726501</v>
+        <v>1.036824941635132</v>
       </c>
       <c r="G14" t="n">
-        <v>4.684248924255371</v>
+        <v>1.523918628692627</v>
       </c>
       <c r="H14" t="n">
-        <v>2.684038400650024</v>
+        <v>5.542130947113037</v>
       </c>
       <c r="I14" t="n">
-        <v>3.74298882484436</v>
+        <v>3.41484260559082</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_10</t>
+          <t>model_8_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03997739606361739</v>
+        <v>0.09176154994266783</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.974990921792778</v>
+        <v>-0.5751264689790598</v>
       </c>
       <c r="D15" t="n">
-        <v>-13.28179948208203</v>
+        <v>-3.78086018264193</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.684528714304045</v>
+        <v>-2.01732533598787</v>
       </c>
       <c r="F15" t="n">
-        <v>1.150948643684387</v>
+        <v>1.005152344703674</v>
       </c>
       <c r="G15" t="n">
-        <v>5.102645874023438</v>
+        <v>1.474019050598145</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156708240509033</v>
+        <v>5.373686790466309</v>
       </c>
       <c r="I15" t="n">
-        <v>3.71634316444397</v>
+        <v>3.309158325195312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_11</t>
+          <t>model_8_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01082783227889483</v>
+        <v>0.1355222151019148</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.804545785889659</v>
+        <v>-0.5216460071840614</v>
       </c>
       <c r="D16" t="n">
-        <v>-13.97006907691524</v>
+        <v>-3.522897229432981</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.579558089501617</v>
+        <v>-1.868750388823841</v>
       </c>
       <c r="F16" t="n">
-        <v>1.118688583374023</v>
+        <v>0.9567221403121948</v>
       </c>
       <c r="G16" t="n">
-        <v>4.810301303863525</v>
+        <v>1.42397141456604</v>
       </c>
       <c r="H16" t="n">
-        <v>2.260644435882568</v>
+        <v>5.083736419677734</v>
       </c>
       <c r="I16" t="n">
-        <v>3.61046576499939</v>
+        <v>3.146213293075562</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_7</t>
+          <t>model_8_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.000353585672610679</v>
+        <v>0.1688271991608291</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.087586303976346</v>
+        <v>-0.4420917449086732</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.70572007190723</v>
+        <v>-3.353182269017908</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.533913859875652</v>
+        <v>-1.75096118199786</v>
       </c>
       <c r="F17" t="n">
-        <v>1.107096552848816</v>
+        <v>0.9198633432388306</v>
       </c>
       <c r="G17" t="n">
-        <v>5.295766830444336</v>
+        <v>1.349523782730103</v>
       </c>
       <c r="H17" t="n">
-        <v>1.616680979728699</v>
+        <v>4.892976760864258</v>
       </c>
       <c r="I17" t="n">
-        <v>3.564428091049194</v>
+        <v>3.017031669616699</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_6</t>
+          <t>model_8_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004040783784619029</v>
+        <v>0.3264597139418017</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.08613393223909</v>
+        <v>-0.04577927267177651</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.668172439280735</v>
+        <v>-2.618064990786939</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.529959484641532</v>
+        <v>-1.217388531265002</v>
       </c>
       <c r="F18" t="n">
-        <v>1.106258153915405</v>
+        <v>0.7454105615615845</v>
       </c>
       <c r="G18" t="n">
-        <v>5.293275833129883</v>
+        <v>0.9786506295204163</v>
       </c>
       <c r="H18" t="n">
-        <v>1.611010789871216</v>
+        <v>4.066704750061035</v>
       </c>
       <c r="I18" t="n">
-        <v>3.560439109802246</v>
+        <v>2.431852340698242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_8</t>
+          <t>model_8_9_2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003408933549454263</v>
+        <v>0.4658927792872345</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.015344380046283</v>
+        <v>0.2158803854747712</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.4805470740315</v>
+        <v>-0.8992038063547936</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.523475802234947</v>
+        <v>-0.2701915609206689</v>
       </c>
       <c r="F19" t="n">
-        <v>1.102932691574097</v>
+        <v>0.5910993218421936</v>
       </c>
       <c r="G19" t="n">
-        <v>5.171858787536621</v>
+        <v>0.733786940574646</v>
       </c>
       <c r="H19" t="n">
-        <v>1.733688354492188</v>
+        <v>2.134705066680908</v>
       </c>
       <c r="I19" t="n">
-        <v>3.55389928817749</v>
+        <v>1.393043279647827</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_9</t>
+          <t>model_8_9_0</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01216868333878407</v>
+        <v>0.4880375525350504</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.913489352278944</v>
+        <v>0.7907230832902306</v>
       </c>
       <c r="D20" t="n">
-        <v>-11.36613693505066</v>
+        <v>0.8494964772220306</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.494172645154403</v>
+        <v>0.8328746350337507</v>
       </c>
       <c r="F20" t="n">
-        <v>1.093238234519958</v>
+        <v>0.5665915608406067</v>
       </c>
       <c r="G20" t="n">
-        <v>4.997159957885742</v>
+        <v>0.1958434134721756</v>
       </c>
       <c r="H20" t="n">
-        <v>1.867422103881836</v>
+        <v>0.1691659390926361</v>
       </c>
       <c r="I20" t="n">
-        <v>3.524343252182007</v>
+        <v>0.1832896023988724</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_4</t>
+          <t>model_8_9_1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03721808332958687</v>
+        <v>0.4979377091613004</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.030490993663658</v>
+        <v>0.7143505074808063</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.364164379576586</v>
+        <v>0.4325449552530423</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.388011984544521</v>
+        <v>0.5972798963679282</v>
       </c>
       <c r="F21" t="n">
-        <v>1.065515756607056</v>
+        <v>0.5556349754333496</v>
       </c>
       <c r="G21" t="n">
-        <v>5.197838306427002</v>
+        <v>0.2673136293888092</v>
       </c>
       <c r="H21" t="n">
-        <v>1.414091229438782</v>
+        <v>0.6378194093704224</v>
       </c>
       <c r="I21" t="n">
-        <v>3.417266130447388</v>
+        <v>0.441670835018158</v>
       </c>
     </row>
     <row r="22">
@@ -1102,152 +1102,152 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05958226173856274</v>
+        <v>0.5541279729083624</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.838976449992797</v>
+        <v>0.5359914217677115</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.690451560141888</v>
+        <v>-1.342257762238201</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.309031807819245</v>
+        <v>-0.3392685223879568</v>
       </c>
       <c r="F22" t="n">
-        <v>1.040765404701233</v>
+        <v>0.493448942899704</v>
       </c>
       <c r="G22" t="n">
-        <v>4.869356155395508</v>
+        <v>0.434223860502243</v>
       </c>
       <c r="H22" t="n">
-        <v>1.614375233650208</v>
+        <v>2.632697582244873</v>
       </c>
       <c r="I22" t="n">
-        <v>3.33760404586792</v>
+        <v>1.468801379203796</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_3</t>
+          <t>model_8_9_7</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1586427627299806</v>
+        <v>0.5602716756795878</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.624917839735343</v>
+        <v>0.1732074302757919</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.738972732316173</v>
+        <v>-1.15511255981434</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.908358900603679</v>
+        <v>-0.412891454298419</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9311345219612122</v>
+        <v>0.4866497218608856</v>
       </c>
       <c r="G23" t="n">
-        <v>4.502207279205322</v>
+        <v>0.7737206816673279</v>
       </c>
       <c r="H23" t="n">
-        <v>1.168669700622559</v>
+        <v>2.422346115112305</v>
       </c>
       <c r="I23" t="n">
-        <v>2.933471202850342</v>
+        <v>1.549545049667358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_2</t>
+          <t>model_8_9_4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6675843016231475</v>
+        <v>0.568232723531567</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1093257658595047</v>
+        <v>0.5878555574601406</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.311767101837092</v>
+        <v>-1.278055649026113</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03528376796228927</v>
+        <v>-0.2848730734521894</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3678862154483795</v>
+        <v>0.4778391420841217</v>
       </c>
       <c r="G24" t="n">
-        <v>1.527666687965393</v>
+        <v>0.3856889009475708</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3491021394729614</v>
+        <v>2.560534477233887</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9730461239814758</v>
+        <v>1.409144759178162</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_0</t>
+          <t>model_8_9_3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8220740554989456</v>
+        <v>0.5842529227831739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9543884904048434</v>
+        <v>0.6581374640798341</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7429753110678087</v>
+        <v>-1.212292564446782</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9408288290290668</v>
+        <v>-0.2214084287548026</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1969116032123566</v>
+        <v>0.4601095020771027</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07823196053504944</v>
+        <v>0.3199183642864227</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03881354257464409</v>
+        <v>2.486616611480713</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05968208983540535</v>
+        <v>1.339541912078857</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_1</t>
+          <t>model_8_9_6</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8350959861030013</v>
+        <v>0.7408732073321167</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8867149755345987</v>
+        <v>0.3049921024759104</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3466232363603329</v>
+        <v>0.04687200154060278</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8519793168160208</v>
+        <v>0.226351006317564</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1825001537799835</v>
+        <v>0.2867770195007324</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1943042278289795</v>
+        <v>0.6503953337669373</v>
       </c>
       <c r="H26" t="n">
-        <v>0.09866704791784286</v>
+        <v>1.071315765380859</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1492987871170044</v>
+        <v>0.8484756350517273</v>
       </c>
     </row>
   </sheetData>
